--- a/Inputdateien/Input_Gartenschau_alleLadehaltestellen.xlsx
+++ b/Inputdateien/Input_Gartenschau_alleLadehaltestellen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DD8D73-6DC3-42B2-AA6A-D01D5B28F0DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB82B15B-FD75-45A9-AECC-EFCAAA82372F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6750" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Tabelle richtig ausgefüllt?</t>
   </si>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BB4CFC-4877-4FD6-BF56-167E70887CDC}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,7 +1131,9 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
@@ -1178,7 +1180,9 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
